--- a/trabalho-final/files/resultadopesquisa.xlsx
+++ b/trabalho-final/files/resultadopesquisa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Layse\github\testesPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Layse\Desktop\UFLA - Ciencia da Computacao\2020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="100">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -127,9 +127,6 @@
     <t>9 - 10</t>
   </si>
   <si>
-    <t>4 -5</t>
-  </si>
-  <si>
     <t>0 - 7</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
   </si>
   <si>
     <t>5 - 6 - 7 - 8 - 9</t>
-  </si>
-  <si>
-    <t>0 - 1 - 2 -3</t>
   </si>
   <si>
     <t>0 - 4</t>
@@ -338,11 +332,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -367,6 +360,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -428,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -442,9 +441,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +452,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,9 +678,9 @@
   </sheetPr>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -975,8 +977,8 @@
       <c r="G10" s="4">
         <v>7</v>
       </c>
-      <c r="H10" s="7">
-        <v>43891</v>
+      <c r="H10" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>0</v>
@@ -1027,7 +1029,7 @@
       <c r="E12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1149,8 +1151,8 @@
       <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>33</v>
+      <c r="H16" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="I16" s="3" t="b">
         <v>0</v>
@@ -1176,10 +1178,10 @@
         <v>60</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="I17" s="3" t="b">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="b">
         <v>0</v>
@@ -1259,14 +1261,14 @@
       <c r="E20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="I20" s="3" t="b">
         <v>0</v>
@@ -1321,7 +1323,7 @@
         <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>11</v>
@@ -1350,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>15</v>
@@ -1399,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="6" t="b">
         <v>0</v>
@@ -1408,7 +1410,7 @@
         <v>90</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="5">
         <v>4</v>
@@ -1437,10 +1439,10 @@
         <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="I26" s="3" t="b">
         <v>0</v>
@@ -1469,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="3" t="b">
         <v>0</v>
@@ -1498,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="3" t="b">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="6" t="b">
         <v>0</v>
@@ -1544,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="6" t="b">
         <v>0</v>
@@ -1553,7 +1555,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
@@ -1578,11 +1580,11 @@
       <c r="E31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>90</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
@@ -1631,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6" t="b">
         <v>0</v>
@@ -1640,10 +1642,10 @@
         <v>60</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="3" t="b">
         <v>0</v>
@@ -1669,10 +1671,10 @@
         <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="I34" s="3" t="b">
         <v>0</v>
@@ -1689,7 +1691,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="6" t="b">
         <v>0</v>
@@ -1701,7 +1703,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="3" t="b">
         <v>0</v>
@@ -1718,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6" t="b">
         <v>0</v>
@@ -1730,7 +1732,7 @@
         <v>32</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="3" t="b">
         <v>0</v>
@@ -1747,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>1</v>
@@ -1759,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I37" s="3" t="b">
         <v>0</v>
@@ -1834,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="6" t="b">
         <v>0</v>
@@ -1843,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H40" s="5">
         <v>2</v>
@@ -1863,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="6" t="b">
         <v>0</v>
@@ -1892,12 +1894,12 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>30</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -1950,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="6" t="b">
         <v>0</v>
@@ -1979,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="6" t="b">
         <v>0</v>
@@ -1991,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45" s="3" t="b">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="6" t="b">
         <v>0</v>
@@ -2037,19 +2039,19 @@
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>60</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>60</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="I47" s="3" t="b">
         <v>0</v>
@@ -2066,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="6" t="b">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="3" t="b">
         <v>0</v>
@@ -2095,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" s="6" t="b">
         <v>0</v>
@@ -2124,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="6" t="b">
         <v>0</v>
@@ -2153,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="6" t="b">
         <v>0</v>
@@ -2162,10 +2164,10 @@
         <v>90</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I51" s="3" t="b">
         <v>0</v>
@@ -2182,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" s="6" t="b">
         <v>0</v>
@@ -2191,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>29</v>
@@ -2211,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="6" t="b">
         <v>0</v>
@@ -2240,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="6" t="b">
         <v>0</v>
@@ -2252,7 +2254,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" s="3" t="b">
         <v>0</v>
@@ -2298,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="6" t="b">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" s="6" t="b">
         <v>0</v>
@@ -2481,10 +2483,10 @@
         <v>60</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="3" t="b">
         <v>0</v>
@@ -2501,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="6" t="b">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E64" s="6" t="b">
         <v>0</v>
@@ -2559,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" s="6" t="b">
         <v>0</v>
@@ -2568,10 +2570,10 @@
         <v>60</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="I65" s="3" t="b">
         <v>0</v>
@@ -2622,7 +2624,7 @@
       <c r="E67" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="7">
         <v>30</v>
       </c>
       <c r="G67" s="4">
@@ -2655,7 +2657,7 @@
         <v>30</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="5">
         <v>2</v>
@@ -2675,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" s="6" t="b">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>30</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I70" s="3" t="b">
         <v>0</v>
@@ -2733,12 +2735,12 @@
         <v>9</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <v>30</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -2820,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E74" s="6" t="b">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E75" s="6" t="b">
         <v>0</v>
@@ -2907,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E77" s="6" t="b">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>30</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>15</v>
@@ -2965,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E79" s="6" t="b">
         <v>0</v>
@@ -2974,7 +2976,7 @@
         <v>120</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" s="5">
         <v>4</v>
@@ -2994,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E80" s="6" t="b">
         <v>0</v>
@@ -3023,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E81" s="6" t="b">
         <v>0</v>
@@ -3049,10 +3051,10 @@
         <v>23</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" s="6" t="b">
         <v>0</v>
@@ -3061,10 +3063,10 @@
         <v>90</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I82" s="3" t="b">
         <v>0</v>
@@ -3081,12 +3083,12 @@
         <v>12</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E83" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -3122,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I84" s="3" t="b">
         <v>0</v>
@@ -3139,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" s="6" t="b">
         <v>0</v>
@@ -3151,7 +3153,7 @@
         <v>18</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I85" s="3" t="b">
         <v>0</v>
@@ -3173,7 +3175,7 @@
       <c r="E86" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <v>90</v>
       </c>
       <c r="G86" s="4">
@@ -3197,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87" s="6" t="b">
         <v>0</v>
@@ -3223,10 +3225,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E88" s="6" t="b">
         <v>0</v>
@@ -3264,10 +3266,10 @@
         <v>30</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I89" s="3" t="b">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E90" s="6" t="b">
         <v>0</v>
@@ -3293,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>14</v>
@@ -3318,11 +3320,11 @@
       <c r="E91" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="7">
         <v>40</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>19</v>
@@ -3351,7 +3353,7 @@
         <v>60</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>29</v>
@@ -3371,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E93" s="6" t="b">
         <v>0</v>
@@ -3383,7 +3385,7 @@
         <v>10</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I93" s="3" t="b">
         <v>0</v>
@@ -3400,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E94" s="6" t="b">
         <v>0</v>
@@ -3458,12 +3460,12 @@
         <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E96" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="7">
         <v>90</v>
       </c>
       <c r="G96" s="4">
@@ -3525,7 +3527,7 @@
         <v>60</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>19</v>
@@ -3545,7 +3547,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E99" s="6" t="b">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>23</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I99" s="3" t="b">
         <v>0</v>
@@ -3583,10 +3585,10 @@
         <v>60</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I100" s="3" t="b">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E101" s="6" t="b">
         <v>0</v>
@@ -3612,10 +3614,10 @@
         <v>30</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I101" s="3" t="b">
         <v>0</v>
@@ -3632,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E102" s="6" t="b">
         <v>0</v>
@@ -3658,6 +3660,7 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3673,163 +3676,163 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E5" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.625</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>0.75</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trabalho-final/files/resultadopesquisa.xlsx
+++ b/trabalho-final/files/resultadopesquisa.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Layse\Desktop\UFLA - Ciencia da Computacao\2020-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Layse\Desktop\UFLA - Ciencia da Computacao\2020-1\Algoritmos em Grafos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10110" windowHeight="4005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="respostas" sheetId="1" r:id="rId1"/>
     <sheet name="Legenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">respostas!$A$1:$I$102</definedName>
     <definedName name="Z_F8DEC837_9F6F_4008_9094_32CF06364912_.wvu.FilterData" localSheetId="0" hidden="1">respostas!$A$1:$J$102</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -58,9 +59,6 @@
     <t>Feminino</t>
   </si>
   <si>
-    <t>Bambuí</t>
-  </si>
-  <si>
     <t>2 - 3</t>
   </si>
   <si>
@@ -106,15 +104,9 @@
     <t>0 - 1 - 2 - 3 - 4 - 5</t>
   </si>
   <si>
-    <t>Uberlândia</t>
-  </si>
-  <si>
     <t>1 - 3 - 5</t>
   </si>
   <si>
-    <t>Japaraíba</t>
-  </si>
-  <si>
     <t>4 - 5</t>
   </si>
   <si>
@@ -133,9 +125,6 @@
     <t>1 - 4</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>0 - 1 - 10</t>
   </si>
   <si>
@@ -166,9 +155,6 @@
     <t>Oliveira</t>
   </si>
   <si>
-    <t>Poços de Caldas</t>
-  </si>
-  <si>
     <t>7 - 8 - 9</t>
   </si>
   <si>
@@ -193,15 +179,9 @@
     <t>3 - 4</t>
   </si>
   <si>
-    <t>Sao João Del Rei</t>
-  </si>
-  <si>
     <t>2 - 3 - 7</t>
   </si>
   <si>
-    <t>Perdões</t>
-  </si>
-  <si>
     <t>Ijaci</t>
   </si>
   <si>
@@ -214,9 +194,6 @@
     <t>Campo Belo</t>
   </si>
   <si>
-    <t>Jundiaí</t>
-  </si>
-  <si>
     <t>6 - 7 - 8</t>
   </si>
   <si>
@@ -235,9 +212,6 @@
     <t>2 - 3 - 7 - 8 - 9</t>
   </si>
   <si>
-    <t>Ilhéus</t>
-  </si>
-  <si>
     <t>0 - 1</t>
   </si>
   <si>
@@ -247,9 +221,6 @@
     <t>0 - 4</t>
   </si>
   <si>
-    <t>Ubá</t>
-  </si>
-  <si>
     <t>Bom Sucesso</t>
   </si>
   <si>
@@ -271,18 +242,9 @@
     <t>2 - 5</t>
   </si>
   <si>
-    <t>Viçosa</t>
-  </si>
-  <si>
-    <t>Itajubá</t>
-  </si>
-  <si>
     <t>5 - 6 - 7 - 8</t>
   </si>
   <si>
-    <t>Divinópolis</t>
-  </si>
-  <si>
     <t>2 - 6 - 7</t>
   </si>
   <si>
@@ -326,6 +288,45 @@
   </si>
   <si>
     <t>Sábado</t>
+  </si>
+  <si>
+    <t>Bambui</t>
+  </si>
+  <si>
+    <t>Perdoes</t>
+  </si>
+  <si>
+    <t>Divinopolis</t>
+  </si>
+  <si>
+    <t>Vicosa</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Uba</t>
+  </si>
+  <si>
+    <t>Ilheus</t>
+  </si>
+  <si>
+    <t>Jundiai</t>
+  </si>
+  <si>
+    <t>Sao Joao Del Rei</t>
+  </si>
+  <si>
+    <t>Itajuba</t>
+  </si>
+  <si>
+    <t>Japaraiba</t>
+  </si>
+  <si>
+    <t>Uberlandia</t>
+  </si>
+  <si>
+    <t>Pocos de Caldas</t>
   </si>
 </sst>
 </file>
@@ -678,9 +679,9 @@
   </sheetPr>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -694,7 +695,7 @@
     <col min="10" max="15" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44016.6547421875</v>
       </c>
@@ -734,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="b">
         <v>0</v>
@@ -746,13 +747,13 @@
         <v>8</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44034.429480092593</v>
       </c>
@@ -760,10 +761,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="6" t="b">
         <v>0</v>
@@ -772,16 +773,16 @@
         <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44034.44203262731</v>
       </c>
@@ -789,10 +790,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
@@ -804,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44034.443546840281</v>
       </c>
@@ -821,16 +822,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H5" s="5">
         <v>5</v>
@@ -839,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44034.453211759261</v>
       </c>
@@ -847,10 +848,10 @@
         <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E6" s="6" t="b">
         <v>0</v>
@@ -868,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44034.458184884264</v>
       </c>
@@ -876,28 +877,28 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>60</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="I7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44034.471187199073</v>
       </c>
@@ -908,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E8" s="6" t="b">
         <v>0</v>
@@ -926,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44034.472666018519</v>
       </c>
@@ -934,10 +935,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="b">
         <v>0</v>
@@ -955,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44034.473142951392</v>
       </c>
@@ -963,10 +964,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="b">
         <v>0</v>
@@ -978,13 +979,13 @@
         <v>7</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44034.482608067134</v>
       </c>
@@ -995,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E11" s="6" t="b">
         <v>0</v>
@@ -1013,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44034.496242476853</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="b">
         <v>0</v>
@@ -1033,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
@@ -1042,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44034.545087696759</v>
       </c>
@@ -1050,10 +1051,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="b">
         <v>0</v>
@@ -1062,16 +1063,16 @@
         <v>120</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44034.556915775465</v>
       </c>
@@ -1079,10 +1080,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>1</v>
@@ -1094,13 +1095,13 @@
         <v>9</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44034.560391400461</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="b">
         <v>0</v>
@@ -1120,16 +1121,16 @@
         <v>60</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44034.561144953703</v>
       </c>
@@ -1137,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="6" t="b">
         <v>0</v>
@@ -1149,16 +1150,16 @@
         <v>60</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44034.577410416663</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E17" s="6" t="b">
         <v>0</v>
@@ -1178,16 +1179,16 @@
         <v>60</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44034.607810787042</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E18" s="6" t="b">
         <v>0</v>
@@ -1216,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44034.608712060188</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E19" s="6" t="b">
         <v>0</v>
@@ -1245,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44034.61264136574</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>1</v>
@@ -1265,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44034.626255462965</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E21" s="6" t="b">
         <v>0</v>
@@ -1297,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I21" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44034.657421736112</v>
       </c>
@@ -1311,10 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
@@ -1323,16 +1324,16 @@
         <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44034.659079155092</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
@@ -1352,16 +1353,16 @@
         <v>30</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44034.700048229162</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="6" t="b">
         <v>0</v>
@@ -1390,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44034.715359351852</v>
       </c>
@@ -1398,10 +1399,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25" s="6" t="b">
         <v>0</v>
@@ -1410,7 +1411,7 @@
         <v>90</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H25" s="5">
         <v>4</v>
@@ -1419,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44034.758470104163</v>
       </c>
@@ -1427,10 +1428,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E26" s="6" t="b">
         <v>0</v>
@@ -1439,16 +1440,16 @@
         <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I26" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44034.762346967589</v>
       </c>
@@ -1456,10 +1457,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>1</v>
@@ -1471,13 +1472,13 @@
         <v>2</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I27" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44034.83054761574</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E28" s="6" t="b">
         <v>0</v>
@@ -1500,13 +1501,13 @@
         <v>6</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I28" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44034.881319224536</v>
       </c>
@@ -1514,10 +1515,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6" t="b">
         <v>0</v>
@@ -1535,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44034.984111041667</v>
       </c>
@@ -1543,10 +1544,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E30" s="6" t="b">
         <v>0</v>
@@ -1555,7 +1556,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
@@ -1564,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44035.345814085653</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="6" t="b">
         <v>0</v>
@@ -1584,7 +1585,7 @@
         <v>90</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
@@ -1593,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44035.813882499999</v>
       </c>
@@ -1601,10 +1602,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E32" s="6" t="b">
         <v>0</v>
@@ -1622,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44035.814077905088</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E33" s="6" t="b">
         <v>0</v>
@@ -1642,16 +1643,16 @@
         <v>60</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I33" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44035.814563506945</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="6" t="b">
         <v>0</v>
@@ -1671,16 +1672,16 @@
         <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I34" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44035.81498599537</v>
       </c>
@@ -1688,10 +1689,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E35" s="6" t="b">
         <v>0</v>
@@ -1700,16 +1701,16 @@
         <v>30</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I35" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44035.815574340275</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E36" s="6" t="b">
         <v>0</v>
@@ -1729,16 +1730,16 @@
         <v>30</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I36" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44035.816449675927</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>1</v>
@@ -1758,16 +1759,16 @@
         <v>60</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I37" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44035.817063541668</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="6" t="b">
         <v>0</v>
@@ -1787,7 +1788,7 @@
         <v>90</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -1796,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44035.81951887731</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E39" s="6" t="b">
         <v>0</v>
@@ -1825,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44035.820647280096</v>
       </c>
@@ -1833,10 +1834,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E40" s="6" t="b">
         <v>0</v>
@@ -1845,7 +1846,7 @@
         <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H40" s="5">
         <v>2</v>
@@ -1854,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44035.82151952546</v>
       </c>
@@ -1862,10 +1863,10 @@
         <v>23</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E41" s="6" t="b">
         <v>0</v>
@@ -1883,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44035.821525439816</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E42" s="6" t="b">
         <v>0</v>
@@ -1903,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -1912,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44035.821862696757</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6" t="b">
         <v>0</v>
@@ -1941,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44035.821976712963</v>
       </c>
@@ -1949,10 +1950,10 @@
         <v>24</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6" t="b">
         <v>0</v>
@@ -1970,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44035.82241591435</v>
       </c>
@@ -1978,10 +1979,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E45" s="6" t="b">
         <v>0</v>
@@ -1993,13 +1994,13 @@
         <v>6</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I45" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44035.822683344908</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E46" s="6" t="b">
         <v>0</v>
@@ -2019,16 +2020,16 @@
         <v>30</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44035.82294539352</v>
       </c>
@@ -2036,10 +2037,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E47" s="6" t="b">
         <v>0</v>
@@ -2048,16 +2049,16 @@
         <v>60</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I47" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44035.823375057866</v>
       </c>
@@ -2065,10 +2066,10 @@
         <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E48" s="6" t="b">
         <v>0</v>
@@ -2080,13 +2081,13 @@
         <v>10</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I48" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44035.824424745369</v>
       </c>
@@ -2094,10 +2095,10 @@
         <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E49" s="6" t="b">
         <v>0</v>
@@ -2115,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44035.824440243057</v>
       </c>
@@ -2123,10 +2124,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6" t="b">
         <v>0</v>
@@ -2144,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44035.824464999998</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E51" s="6" t="b">
         <v>0</v>
@@ -2164,16 +2165,16 @@
         <v>90</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I51" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44035.826079907405</v>
       </c>
@@ -2181,10 +2182,10 @@
         <v>26</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E52" s="6" t="b">
         <v>0</v>
@@ -2193,16 +2194,16 @@
         <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44035.826131469905</v>
       </c>
@@ -2210,10 +2211,10 @@
         <v>22</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E53" s="6" t="b">
         <v>0</v>
@@ -2231,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44035.826628402778</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E54" s="6" t="b">
         <v>0</v>
@@ -2251,16 +2252,16 @@
         <v>90</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I54" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44035.82751920139</v>
       </c>
@@ -2268,10 +2269,10 @@
         <v>29</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E55" s="6" t="b">
         <v>0</v>
@@ -2289,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44035.828122916668</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E56" s="6" t="b">
         <v>0</v>
@@ -2318,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44035.830807974533</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E57" s="6" t="b">
         <v>0</v>
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44035.831627627311</v>
       </c>
@@ -2355,10 +2356,10 @@
         <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E58" s="6" t="b">
         <v>0</v>
@@ -2376,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44035.833610706017</v>
       </c>
@@ -2384,10 +2385,10 @@
         <v>22</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E59" s="6" t="b">
         <v>0</v>
@@ -2405,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44035.83407287037</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E60" s="6" t="b">
         <v>0</v>
@@ -2434,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44035.838288379629</v>
       </c>
@@ -2442,10 +2443,10 @@
         <v>21</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E61" s="6" t="b">
         <v>0</v>
@@ -2463,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44035.838415775463</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" s="6" t="b">
         <v>0</v>
@@ -2483,16 +2484,16 @@
         <v>60</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I62" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44035.840227743058</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E63" s="6" t="b">
         <v>0</v>
@@ -2521,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44035.844352037035</v>
       </c>
@@ -2529,10 +2530,10 @@
         <v>20</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E64" s="6" t="b">
         <v>0</v>
@@ -2550,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44035.844772060183</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E65" s="6" t="b">
         <v>0</v>
@@ -2570,16 +2571,16 @@
         <v>60</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I65" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44035.846723078706</v>
       </c>
@@ -2587,10 +2588,10 @@
         <v>50</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E66" s="3" t="b">
         <v>1</v>
@@ -2608,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44035.846805983798</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" s="6" t="b">
         <v>0</v>
@@ -2637,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44035.848641759258</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E68" s="6" t="b">
         <v>0</v>
@@ -2657,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H68" s="5">
         <v>2</v>
@@ -2666,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44035.850744317126</v>
       </c>
@@ -2674,10 +2675,10 @@
         <v>52</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E69" s="6" t="b">
         <v>0</v>
@@ -2695,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44035.852136608795</v>
       </c>
@@ -2703,10 +2704,10 @@
         <v>32</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E70" s="3" t="b">
         <v>1</v>
@@ -2715,16 +2716,16 @@
         <v>60</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I70" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44035.853723148146</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E71" s="6" t="b">
         <v>0</v>
@@ -2744,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -2753,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44035.873612326388</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="6" t="b">
         <v>0</v>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44035.886987766207</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" s="6" t="b">
         <v>0</v>
@@ -2805,13 +2806,13 @@
         <v>10</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I73" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44035.887162754632</v>
       </c>
@@ -2819,10 +2820,10 @@
         <v>23</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E74" s="6" t="b">
         <v>0</v>
@@ -2840,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44035.89130260417</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E75" s="6" t="b">
         <v>0</v>
@@ -2869,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44035.918541342588</v>
       </c>
@@ -2877,10 +2878,10 @@
         <v>31</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E76" s="6" t="b">
         <v>0</v>
@@ -2892,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I76" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44035.927183761574</v>
       </c>
@@ -2906,10 +2907,10 @@
         <v>28</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E77" s="6" t="b">
         <v>0</v>
@@ -2918,16 +2919,16 @@
         <v>30</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I77" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44035.928990138884</v>
       </c>
@@ -2935,10 +2936,10 @@
         <v>23</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E78" s="6" t="b">
         <v>0</v>
@@ -2950,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I78" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44035.93214892361</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E79" s="6" t="b">
         <v>0</v>
@@ -2976,7 +2977,7 @@
         <v>120</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H79" s="5">
         <v>4</v>
@@ -2985,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44035.941133611108</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E80" s="6" t="b">
         <v>0</v>
@@ -3014,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44035.950676967594</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E81" s="6" t="b">
         <v>0</v>
@@ -3043,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44035.964980543984</v>
       </c>
@@ -3051,10 +3052,10 @@
         <v>23</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E82" s="6" t="b">
         <v>0</v>
@@ -3063,16 +3064,16 @@
         <v>90</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I82" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44035.972125057873</v>
       </c>
@@ -3080,10 +3081,10 @@
         <v>21</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E83" s="6" t="b">
         <v>0</v>
@@ -3092,16 +3093,16 @@
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I83" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44035.9950865625</v>
       </c>
@@ -3109,10 +3110,10 @@
         <v>20</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E84" s="6" t="b">
         <v>0</v>
@@ -3124,13 +3125,13 @@
         <v>7</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I84" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44035.995299861112</v>
       </c>
@@ -3138,10 +3139,10 @@
         <v>19</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E85" s="6" t="b">
         <v>0</v>
@@ -3150,16 +3151,16 @@
         <v>30</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I85" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44036.338226840278</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E86" s="6" t="b">
         <v>0</v>
@@ -3182,13 +3183,13 @@
         <v>8</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I86" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44036.368728703703</v>
       </c>
@@ -3196,10 +3197,10 @@
         <v>22</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E87" s="6" t="b">
         <v>0</v>
@@ -3217,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44036.624099791668</v>
       </c>
@@ -3225,10 +3226,10 @@
         <v>23</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E88" s="6" t="b">
         <v>0</v>
@@ -3240,13 +3241,13 @@
         <v>9</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I88" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44036.669830972227</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E89" s="6" t="b">
         <v>0</v>
@@ -3266,16 +3267,16 @@
         <v>30</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I89" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44036.684508576393</v>
       </c>
@@ -3283,10 +3284,10 @@
         <v>22</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E90" s="6" t="b">
         <v>0</v>
@@ -3295,16 +3296,16 @@
         <v>30</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I90" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44036.684816331021</v>
       </c>
@@ -3312,10 +3313,10 @@
         <v>21</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E91" s="6" t="b">
         <v>0</v>
@@ -3324,16 +3325,16 @@
         <v>40</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I91" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44037.651757789354</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" s="3" t="b">
         <v>1</v>
@@ -3353,16 +3354,16 @@
         <v>60</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I92" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44037.656064861112</v>
       </c>
@@ -3370,10 +3371,10 @@
         <v>20</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E93" s="6" t="b">
         <v>0</v>
@@ -3385,13 +3386,13 @@
         <v>10</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I93" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44037.657110625005</v>
       </c>
@@ -3399,10 +3400,10 @@
         <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E94" s="6" t="b">
         <v>0</v>
@@ -3411,16 +3412,16 @@
         <v>30</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I94" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44037.665131435184</v>
       </c>
@@ -3428,10 +3429,10 @@
         <v>35</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" s="6" t="b">
         <v>0</v>
@@ -3449,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>44037.807226689816</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E96" s="6" t="b">
         <v>0</v>
@@ -3478,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>44039.892119872689</v>
       </c>
@@ -3486,10 +3487,10 @@
         <v>21</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E97" s="6" t="b">
         <v>0</v>
@@ -3507,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>44040.824116747681</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E98" s="6" t="b">
         <v>0</v>
@@ -3527,16 +3528,16 @@
         <v>60</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>44040.824980983802</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E99" s="6" t="b">
         <v>0</v>
@@ -3556,16 +3557,16 @@
         <v>30</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I99" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>44040.825455138889</v>
       </c>
@@ -3573,11 +3574,11 @@
         <v>25</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E100" s="6" t="b">
         <v>0</v>
       </c>
@@ -3585,16 +3586,16 @@
         <v>60</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I100" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>44040.825968634264</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E101" s="6" t="b">
         <v>0</v>
@@ -3614,16 +3615,16 @@
         <v>30</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I101" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>44040.830890682875</v>
       </c>
@@ -3631,10 +3632,10 @@
         <v>20</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E102" s="6" t="b">
         <v>0</v>
@@ -3653,6 +3654,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I102"/>
   <customSheetViews>
     <customSheetView guid="{F8DEC837-9F6F-4008-9094-32CF06364912}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3677,21 +3679,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11">
         <v>0</v>
@@ -3705,7 +3707,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -3719,7 +3721,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
@@ -3733,7 +3735,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
@@ -3747,7 +3749,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
@@ -3761,7 +3763,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
